--- a/Integrated Project/Gauteng MMS/web/Reports/Monthly/Unidentified Bodies/2013-June Report - Unidentified Bodies.xlsx
+++ b/Integrated Project/Gauteng MMS/web/Reports/Monthly/Unidentified Bodies/2013-June Report - Unidentified Bodies.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Forensic Pathology Service</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>00120130607</t>
+  </si>
+  <si>
+    <t>GP/DK//00003/2013</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>GP/DK//00001/2013</t>
+  </si>
+  <si>
+    <t>GP/DK//00002/2013</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="n" s="1">
-        <v>41435.46193844907</v>
+        <v>41439.324970023146</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -486,57 +501,105 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" ht="30.0" customHeight="true">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="P13" s="5"/>
     </row>
     <row r="14" ht="30.0" customHeight="true">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="P14" s="5"/>
     </row>
     <row r="15" ht="30.0" customHeight="true">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="P15" s="5"/>
     </row>
     <row r="16" ht="30.0" customHeight="true">
